--- a/biology/Botanique/Rosa_rugosa/Rosa_rugosa.xlsx
+++ b/biology/Botanique/Rosa_rugosa/Rosa_rugosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier rugueux, ou Rosier du Japon (Rosa rugosa), en japonais hamanasu (ハマナス, 浜茄子, ou 浜梨?, littéralement  « aubergine de rivage » ou « poire de rivage »), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire d'Extrême-Orient (nord-est de la Chine, Japon, Corée et sud-est de la Sibérie), où il croît sur les côtes, souvent dans les dunes.
 Ce rosier botanique a de très nombreux noms vernaculaires, plusieurs d'entre eux font référence à la ressemblance du fruit à une tomate, par exemple  « tomate de mer » ou « tomate de plage » ; on rencontre aussi « rosier d'embruns »  « rosier de plage ».
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier botanique est un arbuste drageonnant qui émet de nouvelles tiges à partir de la souche et forme des fourrés denses de 1 à 1,5 mètre de haut.
 Les tiges sont densément recouvertes de nombreux aiguillons droits et courts (3 à 10 mm de longs). Les feuilles, de 8 à 15 cm de long, sont imparipennées composées de 5 à 9 folioles (le plus souvent sept), chaque foliole a 3 à 4 cm de long et des faces nettement ondulées et rugueuses, d'où le nom de l'espèce.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa rugosa a été introduit dans nombre de régions d'Europe et d'Amérique du Nord.
 Ce rosier supporte les sols pauvres et sablonneux. Il s'hybride facilement avec de nombreux autres rosiers, est très apprécié des sélectionneurs pour sa très grande résistance au froid (zone USDA 2 à 8) et aux maladies de la rouille et des taches noires.
@@ -581,11 +597,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa rugosa est largement employé comme plante ornementale notamment sur le bord des routes (voire autoroutes) car il ne demande quasiment aucun entretien et supporte le salage d'hiver.
 Au Japon et en Chine, où il est cultivé depuis un millier d'années, on se sert des fleurs suavement odorantes pour faire des pots-pourris.
-Ses cynorrhodons comestibles sont très riches en vitamine C (1 cuillère à café de pulpe de cynorrhodons contient autant de vitamine C que 5 oranges). On utilise parfois les pétales ou les cynorrhodons pour faire des confitures et des gelées[1].
+Ses cynorrhodons comestibles sont très riches en vitamine C (1 cuillère à café de pulpe de cynorrhodons contient autant de vitamine C que 5 oranges). On utilise parfois les pétales ou les cynorrhodons pour faire des confitures et des gelées.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De nombreux cultivars ont été sélectionnés pour un usage horticole, la couleur des fleurs variant du blanc au rouge-pourpre foncé, avec des fleurs semi-doubles ou doubles dans lesquelles  tout ou partie des étamines sont transformées en pétales surnuméraires.
 Rosa rugosa 'Thumbergiana', Rosa rugosa 'rugosa' le type de l'espèce
@@ -649,7 +669,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parmi les cultivars les plus populaires, on peut citer :
 Rosa rugosa repens alba ou Rosa × paulii Rehd.et Rosa rugosa repens rosea Hort. ou Rosa × paulii 'Rosea (Rosa rugosa × Rosa arvensis
